--- a/Code/Results/Cases/Case_5_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_245/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9968301800301577</v>
+        <v>1.028333286578941</v>
       </c>
       <c r="D2">
-        <v>1.018819377033408</v>
+        <v>1.036506160765283</v>
       </c>
       <c r="E2">
-        <v>1.003683609329757</v>
+        <v>1.028308089439665</v>
       </c>
       <c r="F2">
-        <v>1.023002901855511</v>
+        <v>1.045316223443975</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043383664774351</v>
+        <v>1.033753740601323</v>
       </c>
       <c r="J2">
-        <v>1.019106114993871</v>
+        <v>1.033486186819577</v>
       </c>
       <c r="K2">
-        <v>1.030022609188462</v>
+        <v>1.039299707786021</v>
       </c>
       <c r="L2">
-        <v>1.015091863067818</v>
+        <v>1.031125284585218</v>
       </c>
       <c r="M2">
-        <v>1.034150808082482</v>
+        <v>1.048084805741589</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001180376782239</v>
+        <v>1.029264745061004</v>
       </c>
       <c r="D3">
-        <v>1.021949459150958</v>
+        <v>1.037196341351081</v>
       </c>
       <c r="E3">
-        <v>1.00714282825824</v>
+        <v>1.029098810820422</v>
       </c>
       <c r="F3">
-        <v>1.026678330737054</v>
+        <v>1.046146191492865</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044325247271077</v>
+        <v>1.033896067206445</v>
       </c>
       <c r="J3">
-        <v>1.021638915176471</v>
+        <v>1.034058302321531</v>
       </c>
       <c r="K3">
-        <v>1.032308989025883</v>
+        <v>1.039799820788631</v>
       </c>
       <c r="L3">
-        <v>1.017685123831344</v>
+        <v>1.031723960519061</v>
       </c>
       <c r="M3">
-        <v>1.036980867983013</v>
+        <v>1.048726141269683</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003941192729283</v>
+        <v>1.029868095796984</v>
       </c>
       <c r="D4">
-        <v>1.023938476150911</v>
+        <v>1.037643300497118</v>
       </c>
       <c r="E4">
-        <v>1.009344366172447</v>
+        <v>1.029611384564347</v>
       </c>
       <c r="F4">
-        <v>1.029015345255645</v>
+        <v>1.046683933459939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04491277429006</v>
+        <v>1.033986983326679</v>
       </c>
       <c r="J4">
-        <v>1.023244616883428</v>
+        <v>1.034428524607848</v>
       </c>
       <c r="K4">
-        <v>1.033756320963118</v>
+        <v>1.040123116547517</v>
       </c>
       <c r="L4">
-        <v>1.019331306113938</v>
+        <v>1.032111613505977</v>
       </c>
       <c r="M4">
-        <v>1.038775752222588</v>
+        <v>1.049141176486108</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005089339609894</v>
+        <v>1.030121895208278</v>
       </c>
       <c r="D5">
-        <v>1.024766203862156</v>
+        <v>1.037831288166892</v>
       </c>
       <c r="E5">
-        <v>1.010261362239702</v>
+        <v>1.029827090249436</v>
       </c>
       <c r="F5">
-        <v>1.029988254027539</v>
+        <v>1.046910165357188</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045154660110087</v>
+        <v>1.034024921664882</v>
       </c>
       <c r="J5">
-        <v>1.023911936355746</v>
+        <v>1.034584170967199</v>
       </c>
       <c r="K5">
-        <v>1.034357291941464</v>
+        <v>1.040258954475734</v>
       </c>
       <c r="L5">
-        <v>1.020015964861141</v>
+        <v>1.032274646155722</v>
       </c>
       <c r="M5">
-        <v>1.039521858320942</v>
+        <v>1.049315667406149</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00528139792163</v>
+        <v>1.030164518051776</v>
       </c>
       <c r="D6">
-        <v>1.02490469420186</v>
+        <v>1.037862857122597</v>
       </c>
       <c r="E6">
-        <v>1.010414837636674</v>
+        <v>1.029863321020171</v>
       </c>
       <c r="F6">
-        <v>1.030151056835514</v>
+        <v>1.046948160324018</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045194976768507</v>
+        <v>1.034031275077548</v>
       </c>
       <c r="J6">
-        <v>1.024023536109248</v>
+        <v>1.034610304930425</v>
       </c>
       <c r="K6">
-        <v>1.034457764181855</v>
+        <v>1.040281757792864</v>
       </c>
       <c r="L6">
-        <v>1.020130494682785</v>
+        <v>1.032302023733622</v>
       </c>
       <c r="M6">
-        <v>1.039646643305391</v>
+        <v>1.049344965750858</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003956582872854</v>
+        <v>1.02987148648626</v>
       </c>
       <c r="D7">
-        <v>1.023949569189668</v>
+        <v>1.037645812061496</v>
       </c>
       <c r="E7">
-        <v>1.009356652273323</v>
+        <v>1.029614265973019</v>
       </c>
       <c r="F7">
-        <v>1.029028382534583</v>
+        <v>1.046686955734765</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044916026339351</v>
+        <v>1.033987491372582</v>
       </c>
       <c r="J7">
-        <v>1.02325356366845</v>
+        <v>1.034430604344264</v>
       </c>
       <c r="K7">
-        <v>1.033764380328703</v>
+        <v>1.040124931919165</v>
       </c>
       <c r="L7">
-        <v>1.019340483330003</v>
+        <v>1.032113791708887</v>
       </c>
       <c r="M7">
-        <v>1.038785754672872</v>
+        <v>1.049143508004379</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9983118128991998</v>
+        <v>1.028647945160686</v>
       </c>
       <c r="D8">
-        <v>1.019884883769827</v>
+        <v>1.03673933374085</v>
       </c>
       <c r="E8">
-        <v>1.004860463384559</v>
+        <v>1.028575125147773</v>
       </c>
       <c r="F8">
-        <v>1.02425375244196</v>
+        <v>1.04559656964865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043706436436527</v>
+        <v>1.033802084234763</v>
       </c>
       <c r="J8">
-        <v>1.01996909946754</v>
+        <v>1.033679530003825</v>
       </c>
       <c r="K8">
-        <v>1.03080207336616</v>
+        <v>1.039468786945269</v>
       </c>
       <c r="L8">
-        <v>1.01597499667366</v>
+        <v>1.031327553361859</v>
       </c>
       <c r="M8">
-        <v>1.035114915314121</v>
+        <v>1.048301537233928</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9879301700846819</v>
+        <v>1.026496824634731</v>
       </c>
       <c r="D9">
-        <v>1.012432208659239</v>
+        <v>1.035144878708707</v>
       </c>
       <c r="E9">
-        <v>0.996642404730817</v>
+        <v>1.026751172832529</v>
       </c>
       <c r="F9">
-        <v>1.015510308368134</v>
+        <v>1.043680585440731</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041404019760395</v>
+        <v>1.033466372774382</v>
       </c>
       <c r="J9">
-        <v>1.013916464829623</v>
+        <v>1.032356285498189</v>
       </c>
       <c r="K9">
-        <v>1.025326751502653</v>
+        <v>1.038310248527629</v>
       </c>
       <c r="L9">
-        <v>1.009790192482219</v>
+        <v>1.029944219626492</v>
       </c>
       <c r="M9">
-        <v>1.028356655809012</v>
+        <v>1.046818310057032</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9806857824710324</v>
+        <v>1.025066120818483</v>
       </c>
       <c r="D10">
-        <v>1.007251320005825</v>
+        <v>1.034083937938518</v>
       </c>
       <c r="E10">
-        <v>0.9909455939022063</v>
+        <v>1.025540102070436</v>
       </c>
       <c r="F10">
-        <v>1.009438650311148</v>
+        <v>1.042407005970272</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039747503190196</v>
+        <v>1.033236550216357</v>
       </c>
       <c r="J10">
-        <v>1.009687226550953</v>
+        <v>1.031474354797172</v>
       </c>
       <c r="K10">
-        <v>1.021490872370126</v>
+        <v>1.037536396374288</v>
       </c>
       <c r="L10">
-        <v>1.005480275745225</v>
+        <v>1.029023493683477</v>
       </c>
       <c r="M10">
-        <v>1.023639552858069</v>
+        <v>1.045829868174029</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9774647479714569</v>
+        <v>1.024447425944714</v>
       </c>
       <c r="D11">
-        <v>1.004953396818132</v>
+        <v>1.033625040336938</v>
       </c>
       <c r="E11">
-        <v>0.9884223770559953</v>
+        <v>1.025016876093686</v>
       </c>
       <c r="F11">
-        <v>1.0067469946032</v>
+        <v>1.04185644135889</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038999781398843</v>
+        <v>1.033135615480893</v>
       </c>
       <c r="J11">
-        <v>1.007806028048597</v>
+        <v>1.031092538374197</v>
       </c>
       <c r="K11">
-        <v>1.019782500023126</v>
+        <v>1.037200970650404</v>
       </c>
       <c r="L11">
-        <v>1.003565983789228</v>
+        <v>1.028625179244212</v>
       </c>
       <c r="M11">
-        <v>1.021542784369263</v>
+        <v>1.045401969031022</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9762549838321685</v>
+        <v>1.024217737869335</v>
       </c>
       <c r="D12">
-        <v>1.004091269191258</v>
+        <v>1.033454661584798</v>
       </c>
       <c r="E12">
-        <v>0.9874762302822918</v>
+        <v>1.024822704860063</v>
       </c>
       <c r="F12">
-        <v>1.005737334984252</v>
+        <v>1.041652074644083</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038717324714781</v>
+        <v>1.033097911072045</v>
       </c>
       <c r="J12">
-        <v>1.007099417172781</v>
+        <v>1.030950725705319</v>
       </c>
       <c r="K12">
-        <v>1.019140504463598</v>
+        <v>1.037076328313773</v>
       </c>
       <c r="L12">
-        <v>1.002847364530993</v>
+        <v>1.028477283713682</v>
       </c>
       <c r="M12">
-        <v>1.020755436036995</v>
+        <v>1.045243045094109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9765150969678232</v>
+        <v>1.024267001167957</v>
       </c>
       <c r="D13">
-        <v>1.004276592951353</v>
+        <v>1.033491204929086</v>
       </c>
       <c r="E13">
-        <v>0.9876795924391947</v>
+        <v>1.024864347160224</v>
       </c>
       <c r="F13">
-        <v>1.005954364164899</v>
+        <v>1.041695905748493</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038778128655523</v>
+        <v>1.03310600841377</v>
       </c>
       <c r="J13">
-        <v>1.007251348728263</v>
+        <v>1.030981144490532</v>
       </c>
       <c r="K13">
-        <v>1.019278556059699</v>
+        <v>1.037103066774633</v>
       </c>
       <c r="L13">
-        <v>1.003001858946434</v>
+        <v>1.028509005245097</v>
       </c>
       <c r="M13">
-        <v>1.020924716412209</v>
+        <v>1.045277134032359</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9773650245011958</v>
+        <v>1.024428437346015</v>
       </c>
       <c r="D14">
-        <v>1.004882310315215</v>
+        <v>1.033610955211318</v>
       </c>
       <c r="E14">
-        <v>0.9883443526412057</v>
+        <v>1.025000822194873</v>
       </c>
       <c r="F14">
-        <v>1.006663739676988</v>
+        <v>1.041839545527649</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038976530597803</v>
+        <v>1.033132503159379</v>
       </c>
       <c r="J14">
-        <v>1.007747781623487</v>
+        <v>1.031080815864831</v>
       </c>
       <c r="K14">
-        <v>1.019729585884071</v>
+        <v>1.037190668694958</v>
       </c>
       <c r="L14">
-        <v>1.003506738908434</v>
+        <v>1.028612953000355</v>
       </c>
       <c r="M14">
-        <v>1.021477877823712</v>
+        <v>1.0453888319767</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9778869055355595</v>
+        <v>1.024527919803406</v>
       </c>
       <c r="D15">
-        <v>1.005254364551943</v>
+        <v>1.033684747464629</v>
       </c>
       <c r="E15">
-        <v>0.9887527391638025</v>
+        <v>1.025084932626688</v>
       </c>
       <c r="F15">
-        <v>1.007099488839468</v>
+        <v>1.041928065007398</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039098142662474</v>
+        <v>1.033148799272371</v>
       </c>
       <c r="J15">
-        <v>1.008052599216803</v>
+        <v>1.031142228172945</v>
       </c>
       <c r="K15">
-        <v>1.020006486183977</v>
+        <v>1.037244636501229</v>
       </c>
       <c r="L15">
-        <v>1.003816798885624</v>
+        <v>1.028677006124454</v>
       </c>
       <c r="M15">
-        <v>1.021817559103056</v>
+        <v>1.045457655043057</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9808977213216645</v>
+        <v>1.025107198709706</v>
       </c>
       <c r="D16">
-        <v>1.007402644178271</v>
+        <v>1.034114404065152</v>
       </c>
       <c r="E16">
-        <v>0.9911118259166959</v>
+        <v>1.02557485175834</v>
       </c>
       <c r="F16">
-        <v>1.009615929723094</v>
+        <v>1.042443564317493</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039796473423861</v>
+        <v>1.03324321905404</v>
       </c>
       <c r="J16">
-        <v>1.009810994452701</v>
+        <v>1.031499696169545</v>
       </c>
       <c r="K16">
-        <v>1.021603226752381</v>
+        <v>1.037558650357455</v>
       </c>
       <c r="L16">
-        <v>1.005606279353344</v>
+        <v>1.029049936314351</v>
       </c>
       <c r="M16">
-        <v>1.023777535034799</v>
+        <v>1.045858268716641</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9827633243047221</v>
+        <v>1.025470782556309</v>
       </c>
       <c r="D17">
-        <v>1.008735334583412</v>
+        <v>1.034384050436875</v>
       </c>
       <c r="E17">
-        <v>0.9925762080423617</v>
+        <v>1.025882480945101</v>
       </c>
       <c r="F17">
-        <v>1.011177357112819</v>
+        <v>1.04276716658003</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040226268016741</v>
+        <v>1.033302066318483</v>
       </c>
       <c r="J17">
-        <v>1.010900385742835</v>
+        <v>1.031723944701691</v>
       </c>
       <c r="K17">
-        <v>1.022591915887975</v>
+        <v>1.037755532059625</v>
       </c>
       <c r="L17">
-        <v>1.006715667462002</v>
+        <v>1.02928396440041</v>
       </c>
       <c r="M17">
-        <v>1.024992204521389</v>
+        <v>1.046109591595862</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9838434265774947</v>
+        <v>1.025682932872436</v>
       </c>
       <c r="D18">
-        <v>1.009507432501658</v>
+        <v>1.034541378424488</v>
       </c>
       <c r="E18">
-        <v>0.9934249401406301</v>
+        <v>1.026062029174008</v>
       </c>
       <c r="F18">
-        <v>1.012082104720543</v>
+        <v>1.042956005383516</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040474033366524</v>
+        <v>1.033336253878043</v>
       </c>
       <c r="J18">
-        <v>1.011531018526258</v>
+        <v>1.031854751310112</v>
       </c>
       <c r="K18">
-        <v>1.023164048764152</v>
+        <v>1.037870336686478</v>
       </c>
       <c r="L18">
-        <v>1.007358141127339</v>
+        <v>1.029420504253572</v>
       </c>
       <c r="M18">
-        <v>1.02569549410861</v>
+        <v>1.04625619379419</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9842103643376756</v>
+        <v>1.025755283844468</v>
       </c>
       <c r="D19">
-        <v>1.009769820634854</v>
+        <v>1.034595031264577</v>
       </c>
       <c r="E19">
-        <v>0.9937134295952195</v>
+        <v>1.026123269655155</v>
       </c>
       <c r="F19">
-        <v>1.012389594835369</v>
+        <v>1.043020409253057</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040558022842987</v>
+        <v>1.033347887687591</v>
       </c>
       <c r="J19">
-        <v>1.011745245724982</v>
+        <v>1.0318993540063</v>
       </c>
       <c r="K19">
-        <v>1.023358368065439</v>
+        <v>1.037909476440289</v>
       </c>
       <c r="L19">
-        <v>1.007576435581824</v>
+        <v>1.029467066753982</v>
       </c>
       <c r="M19">
-        <v>1.025934425340359</v>
+        <v>1.046306182976704</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9825640025193337</v>
+        <v>1.0254317653732</v>
       </c>
       <c r="D20">
-        <v>1.008592893955053</v>
+        <v>1.034355114975053</v>
       </c>
       <c r="E20">
-        <v>0.9924196570442969</v>
+        <v>1.025849463511307</v>
       </c>
       <c r="F20">
-        <v>1.011010455223209</v>
+        <v>1.042732438100388</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040180458860888</v>
+        <v>1.033295766735809</v>
       </c>
       <c r="J20">
-        <v>1.010784002363195</v>
+        <v>1.031699884303541</v>
       </c>
       <c r="K20">
-        <v>1.022486311971661</v>
+        <v>1.037734411935386</v>
       </c>
       <c r="L20">
-        <v>1.006597120245747</v>
+        <v>1.029258851748887</v>
       </c>
       <c r="M20">
-        <v>1.024862423103768</v>
+        <v>1.046082626003916</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9771151156774571</v>
+        <v>1.024380895017501</v>
       </c>
       <c r="D21">
-        <v>1.004704181568693</v>
+        <v>1.033575689620052</v>
       </c>
       <c r="E21">
-        <v>0.9881488469194588</v>
+        <v>1.024960628767241</v>
       </c>
       <c r="F21">
-        <v>1.006455122224932</v>
+        <v>1.041797243383411</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038918237675965</v>
+        <v>1.033124706985447</v>
       </c>
       <c r="J21">
-        <v>1.007601814144906</v>
+        <v>1.031051464817989</v>
       </c>
       <c r="K21">
-        <v>1.01959697651118</v>
+        <v>1.037164873491486</v>
       </c>
       <c r="L21">
-        <v>1.003358276076128</v>
+        <v>1.028582341416547</v>
       </c>
       <c r="M21">
-        <v>1.021315223703153</v>
+        <v>1.045355939239307</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9736116970952327</v>
+        <v>1.023720881875455</v>
       </c>
       <c r="D22">
-        <v>1.002209366712524</v>
+        <v>1.033086075919961</v>
       </c>
       <c r="E22">
-        <v>0.985411826201216</v>
+        <v>1.024402814815714</v>
       </c>
       <c r="F22">
-        <v>1.003533716554868</v>
+        <v>1.041210045708527</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038097243916281</v>
+        <v>1.033015924296492</v>
       </c>
       <c r="J22">
-        <v>1.005555437493296</v>
+        <v>1.030643841669302</v>
       </c>
       <c r="K22">
-        <v>1.017737182308394</v>
+        <v>1.03680649170505</v>
       </c>
       <c r="L22">
-        <v>1.001277924934319</v>
+        <v>1.028157318198017</v>
       </c>
       <c r="M22">
-        <v>1.019035493367767</v>
+        <v>1.044899140663327</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9754765108324027</v>
+        <v>1.024070699570384</v>
       </c>
       <c r="D23">
-        <v>1.003536771125364</v>
+        <v>1.033345586974014</v>
       </c>
       <c r="E23">
-        <v>0.9868678325155925</v>
+        <v>1.024698424228092</v>
       </c>
       <c r="F23">
-        <v>1.005087998843798</v>
+        <v>1.041521254244514</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038535115435956</v>
+        <v>1.033073708509836</v>
       </c>
       <c r="J23">
-        <v>1.006644707065151</v>
+        <v>1.030859923977745</v>
       </c>
       <c r="K23">
-        <v>1.018727292653653</v>
+        <v>1.036996503796713</v>
       </c>
       <c r="L23">
-        <v>1.002385046201626</v>
+        <v>1.028382599775119</v>
       </c>
       <c r="M23">
-        <v>1.020248839150513</v>
+        <v>1.045141288443898</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9826540923508587</v>
+        <v>1.025449395317832</v>
       </c>
       <c r="D24">
-        <v>1.008657272903089</v>
+        <v>1.034368189517166</v>
       </c>
       <c r="E24">
-        <v>0.992490412411696</v>
+        <v>1.025864382318433</v>
       </c>
       <c r="F24">
-        <v>1.011085889532314</v>
+        <v>1.042748130136606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040201167079921</v>
+        <v>1.033298613669594</v>
       </c>
       <c r="J24">
-        <v>1.01083660578218</v>
+        <v>1.031710756142654</v>
       </c>
       <c r="K24">
-        <v>1.02253404388307</v>
+        <v>1.037743955312947</v>
       </c>
       <c r="L24">
-        <v>1.006650700862737</v>
+        <v>1.029270198966425</v>
       </c>
       <c r="M24">
-        <v>1.02492108180345</v>
+        <v>1.046094810564026</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9906686716759466</v>
+        <v>1.027052350972483</v>
       </c>
       <c r="D25">
-        <v>1.014395015104345</v>
+        <v>1.035556732897641</v>
       </c>
       <c r="E25">
-        <v>0.9988039036725498</v>
+        <v>1.027221851787699</v>
       </c>
       <c r="F25">
-        <v>1.017811871697498</v>
+        <v>1.044175260987338</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04202016693589</v>
+        <v>1.03355422507682</v>
       </c>
       <c r="J25">
-        <v>1.015514205401483</v>
+        <v>1.032698339954248</v>
       </c>
       <c r="K25">
-        <v>1.02677390255045</v>
+        <v>1.03861002689691</v>
       </c>
       <c r="L25">
-        <v>1.01142081591604</v>
+        <v>1.030301586055918</v>
       </c>
       <c r="M25">
-        <v>1.030139833506857</v>
+        <v>1.047201699757723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_245/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028333286578941</v>
+        <v>0.9968301800301582</v>
       </c>
       <c r="D2">
-        <v>1.036506160765283</v>
+        <v>1.018819377033409</v>
       </c>
       <c r="E2">
-        <v>1.028308089439665</v>
+        <v>1.003683609329758</v>
       </c>
       <c r="F2">
-        <v>1.045316223443975</v>
+        <v>1.023002901855512</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033753740601323</v>
+        <v>1.043383664774351</v>
       </c>
       <c r="J2">
-        <v>1.033486186819577</v>
+        <v>1.019106114993872</v>
       </c>
       <c r="K2">
-        <v>1.039299707786021</v>
+        <v>1.030022609188463</v>
       </c>
       <c r="L2">
-        <v>1.031125284585218</v>
+        <v>1.015091863067819</v>
       </c>
       <c r="M2">
-        <v>1.048084805741589</v>
+        <v>1.034150808082483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029264745061004</v>
+        <v>1.001180376782238</v>
       </c>
       <c r="D3">
-        <v>1.037196341351081</v>
+        <v>1.021949459150957</v>
       </c>
       <c r="E3">
-        <v>1.029098810820422</v>
+        <v>1.007142828258239</v>
       </c>
       <c r="F3">
-        <v>1.046146191492865</v>
+        <v>1.026678330737054</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033896067206445</v>
+        <v>1.044325247271076</v>
       </c>
       <c r="J3">
-        <v>1.034058302321531</v>
+        <v>1.021638915176471</v>
       </c>
       <c r="K3">
-        <v>1.039799820788631</v>
+        <v>1.032308989025882</v>
       </c>
       <c r="L3">
-        <v>1.031723960519061</v>
+        <v>1.017685123831343</v>
       </c>
       <c r="M3">
-        <v>1.048726141269683</v>
+        <v>1.036980867983012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029868095796984</v>
+        <v>1.003941192729284</v>
       </c>
       <c r="D4">
-        <v>1.037643300497118</v>
+        <v>1.02393847615091</v>
       </c>
       <c r="E4">
-        <v>1.029611384564347</v>
+        <v>1.009344366172448</v>
       </c>
       <c r="F4">
-        <v>1.046683933459939</v>
+        <v>1.029015345255645</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033986983326679</v>
+        <v>1.04491277429006</v>
       </c>
       <c r="J4">
-        <v>1.034428524607848</v>
+        <v>1.023244616883429</v>
       </c>
       <c r="K4">
-        <v>1.040123116547517</v>
+        <v>1.033756320963118</v>
       </c>
       <c r="L4">
-        <v>1.032111613505977</v>
+        <v>1.019331306113938</v>
       </c>
       <c r="M4">
-        <v>1.049141176486108</v>
+        <v>1.038775752222588</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030121895208278</v>
+        <v>1.005089339609894</v>
       </c>
       <c r="D5">
-        <v>1.037831288166892</v>
+        <v>1.024766203862156</v>
       </c>
       <c r="E5">
-        <v>1.029827090249436</v>
+        <v>1.010261362239701</v>
       </c>
       <c r="F5">
-        <v>1.046910165357188</v>
+        <v>1.02998825402754</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034024921664882</v>
+        <v>1.045154660110087</v>
       </c>
       <c r="J5">
-        <v>1.034584170967199</v>
+        <v>1.023911936355746</v>
       </c>
       <c r="K5">
-        <v>1.040258954475734</v>
+        <v>1.034357291941465</v>
       </c>
       <c r="L5">
-        <v>1.032274646155722</v>
+        <v>1.020015964861141</v>
       </c>
       <c r="M5">
-        <v>1.049315667406149</v>
+        <v>1.039521858320941</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030164518051776</v>
+        <v>1.005281397921629</v>
       </c>
       <c r="D6">
-        <v>1.037862857122597</v>
+        <v>1.02490469420186</v>
       </c>
       <c r="E6">
-        <v>1.029863321020171</v>
+        <v>1.010414837636674</v>
       </c>
       <c r="F6">
-        <v>1.046948160324018</v>
+        <v>1.030151056835513</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034031275077548</v>
+        <v>1.045194976768507</v>
       </c>
       <c r="J6">
-        <v>1.034610304930425</v>
+        <v>1.024023536109248</v>
       </c>
       <c r="K6">
-        <v>1.040281757792864</v>
+        <v>1.034457764181855</v>
       </c>
       <c r="L6">
-        <v>1.032302023733622</v>
+        <v>1.020130494682784</v>
       </c>
       <c r="M6">
-        <v>1.049344965750858</v>
+        <v>1.03964664330539</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02987148648626</v>
+        <v>1.003956582872854</v>
       </c>
       <c r="D7">
-        <v>1.037645812061496</v>
+        <v>1.023949569189668</v>
       </c>
       <c r="E7">
-        <v>1.029614265973019</v>
+        <v>1.009356652273323</v>
       </c>
       <c r="F7">
-        <v>1.046686955734765</v>
+        <v>1.029028382534583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033987491372582</v>
+        <v>1.044916026339351</v>
       </c>
       <c r="J7">
-        <v>1.034430604344264</v>
+        <v>1.02325356366845</v>
       </c>
       <c r="K7">
-        <v>1.040124931919165</v>
+        <v>1.033764380328703</v>
       </c>
       <c r="L7">
-        <v>1.032113791708887</v>
+        <v>1.019340483330003</v>
       </c>
       <c r="M7">
-        <v>1.049143508004379</v>
+        <v>1.038785754672872</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028647945160686</v>
+        <v>0.9983118128992005</v>
       </c>
       <c r="D8">
-        <v>1.03673933374085</v>
+        <v>1.019884883769828</v>
       </c>
       <c r="E8">
-        <v>1.028575125147773</v>
+        <v>1.004860463384559</v>
       </c>
       <c r="F8">
-        <v>1.04559656964865</v>
+        <v>1.024253752441961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033802084234763</v>
+        <v>1.043706436436527</v>
       </c>
       <c r="J8">
-        <v>1.033679530003825</v>
+        <v>1.019969099467541</v>
       </c>
       <c r="K8">
-        <v>1.039468786945269</v>
+        <v>1.030802073366161</v>
       </c>
       <c r="L8">
-        <v>1.031327553361859</v>
+        <v>1.015974996673661</v>
       </c>
       <c r="M8">
-        <v>1.048301537233928</v>
+        <v>1.035114915314121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026496824634731</v>
+        <v>0.9879301700846809</v>
       </c>
       <c r="D9">
-        <v>1.035144878708707</v>
+        <v>1.012432208659238</v>
       </c>
       <c r="E9">
-        <v>1.026751172832529</v>
+        <v>0.996642404730816</v>
       </c>
       <c r="F9">
-        <v>1.043680585440731</v>
+        <v>1.015510308368133</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033466372774382</v>
+        <v>1.041404019760395</v>
       </c>
       <c r="J9">
-        <v>1.032356285498189</v>
+        <v>1.013916464829623</v>
       </c>
       <c r="K9">
-        <v>1.038310248527629</v>
+        <v>1.025326751502652</v>
       </c>
       <c r="L9">
-        <v>1.029944219626492</v>
+        <v>1.009790192482218</v>
       </c>
       <c r="M9">
-        <v>1.046818310057032</v>
+        <v>1.028356655809012</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025066120818483</v>
+        <v>0.9806857824710323</v>
       </c>
       <c r="D10">
-        <v>1.034083937938518</v>
+        <v>1.007251320005825</v>
       </c>
       <c r="E10">
-        <v>1.025540102070436</v>
+        <v>0.9909455939022062</v>
       </c>
       <c r="F10">
-        <v>1.042407005970272</v>
+        <v>1.009438650311148</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033236550216357</v>
+        <v>1.039747503190196</v>
       </c>
       <c r="J10">
-        <v>1.031474354797172</v>
+        <v>1.009687226550953</v>
       </c>
       <c r="K10">
-        <v>1.037536396374288</v>
+        <v>1.021490872370126</v>
       </c>
       <c r="L10">
-        <v>1.029023493683477</v>
+        <v>1.005480275745225</v>
       </c>
       <c r="M10">
-        <v>1.045829868174029</v>
+        <v>1.023639552858069</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024447425944714</v>
+        <v>0.9774647479714578</v>
       </c>
       <c r="D11">
-        <v>1.033625040336938</v>
+        <v>1.004953396818133</v>
       </c>
       <c r="E11">
-        <v>1.025016876093686</v>
+        <v>0.9884223770559964</v>
       </c>
       <c r="F11">
-        <v>1.04185644135889</v>
+        <v>1.0067469946032</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033135615480893</v>
+        <v>1.038999781398843</v>
       </c>
       <c r="J11">
-        <v>1.031092538374197</v>
+        <v>1.007806028048598</v>
       </c>
       <c r="K11">
-        <v>1.037200970650404</v>
+        <v>1.019782500023127</v>
       </c>
       <c r="L11">
-        <v>1.028625179244212</v>
+        <v>1.003565983789229</v>
       </c>
       <c r="M11">
-        <v>1.045401969031022</v>
+        <v>1.021542784369264</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024217737869335</v>
+        <v>0.9762549838321678</v>
       </c>
       <c r="D12">
-        <v>1.033454661584798</v>
+        <v>1.004091269191258</v>
       </c>
       <c r="E12">
-        <v>1.024822704860063</v>
+        <v>0.9874762302822911</v>
       </c>
       <c r="F12">
-        <v>1.041652074644083</v>
+        <v>1.005737334984252</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033097911072045</v>
+        <v>1.03871732471478</v>
       </c>
       <c r="J12">
-        <v>1.030950725705319</v>
+        <v>1.007099417172781</v>
       </c>
       <c r="K12">
-        <v>1.037076328313773</v>
+        <v>1.019140504463598</v>
       </c>
       <c r="L12">
-        <v>1.028477283713682</v>
+        <v>1.002847364530992</v>
       </c>
       <c r="M12">
-        <v>1.045243045094109</v>
+        <v>1.020755436036995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024267001167957</v>
+        <v>0.9765150969678226</v>
       </c>
       <c r="D13">
-        <v>1.033491204929086</v>
+        <v>1.004276592951353</v>
       </c>
       <c r="E13">
-        <v>1.024864347160224</v>
+        <v>0.987679592439194</v>
       </c>
       <c r="F13">
-        <v>1.041695905748493</v>
+        <v>1.005954364164899</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03310600841377</v>
+        <v>1.038778128655523</v>
       </c>
       <c r="J13">
-        <v>1.030981144490532</v>
+        <v>1.007251348728263</v>
       </c>
       <c r="K13">
-        <v>1.037103066774633</v>
+        <v>1.019278556059699</v>
       </c>
       <c r="L13">
-        <v>1.028509005245097</v>
+        <v>1.003001858946433</v>
       </c>
       <c r="M13">
-        <v>1.045277134032359</v>
+        <v>1.020924716412208</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024428437346015</v>
+        <v>0.9773650245011951</v>
       </c>
       <c r="D14">
-        <v>1.033610955211318</v>
+        <v>1.004882310315215</v>
       </c>
       <c r="E14">
-        <v>1.025000822194873</v>
+        <v>0.9883443526412052</v>
       </c>
       <c r="F14">
-        <v>1.041839545527649</v>
+        <v>1.006663739676987</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033132503159379</v>
+        <v>1.038976530597803</v>
       </c>
       <c r="J14">
-        <v>1.031080815864831</v>
+        <v>1.007747781623486</v>
       </c>
       <c r="K14">
-        <v>1.037190668694958</v>
+        <v>1.019729585884071</v>
       </c>
       <c r="L14">
-        <v>1.028612953000355</v>
+        <v>1.003506738908433</v>
       </c>
       <c r="M14">
-        <v>1.0453888319767</v>
+        <v>1.021477877823712</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024527919803406</v>
+        <v>0.9778869055355595</v>
       </c>
       <c r="D15">
-        <v>1.033684747464629</v>
+        <v>1.005254364551942</v>
       </c>
       <c r="E15">
-        <v>1.025084932626688</v>
+        <v>0.9887527391638026</v>
       </c>
       <c r="F15">
-        <v>1.041928065007398</v>
+        <v>1.007099488839468</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033148799272371</v>
+        <v>1.039098142662473</v>
       </c>
       <c r="J15">
-        <v>1.031142228172945</v>
+        <v>1.008052599216803</v>
       </c>
       <c r="K15">
-        <v>1.037244636501229</v>
+        <v>1.020006486183977</v>
       </c>
       <c r="L15">
-        <v>1.028677006124454</v>
+        <v>1.003816798885624</v>
       </c>
       <c r="M15">
-        <v>1.045457655043057</v>
+        <v>1.021817559103056</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025107198709706</v>
+        <v>0.980897721321664</v>
       </c>
       <c r="D16">
-        <v>1.034114404065152</v>
+        <v>1.007402644178271</v>
       </c>
       <c r="E16">
-        <v>1.02557485175834</v>
+        <v>0.9911118259166954</v>
       </c>
       <c r="F16">
-        <v>1.042443564317493</v>
+        <v>1.009615929723093</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03324321905404</v>
+        <v>1.039796473423861</v>
       </c>
       <c r="J16">
-        <v>1.031499696169545</v>
+        <v>1.009810994452701</v>
       </c>
       <c r="K16">
-        <v>1.037558650357455</v>
+        <v>1.02160322675238</v>
       </c>
       <c r="L16">
-        <v>1.029049936314351</v>
+        <v>1.005606279353344</v>
       </c>
       <c r="M16">
-        <v>1.045858268716641</v>
+        <v>1.023777535034799</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025470782556309</v>
+        <v>0.9827633243047214</v>
       </c>
       <c r="D17">
-        <v>1.034384050436875</v>
+        <v>1.008735334583412</v>
       </c>
       <c r="E17">
-        <v>1.025882480945101</v>
+        <v>0.9925762080423606</v>
       </c>
       <c r="F17">
-        <v>1.04276716658003</v>
+        <v>1.011177357112818</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033302066318483</v>
+        <v>1.040226268016741</v>
       </c>
       <c r="J17">
-        <v>1.031723944701691</v>
+        <v>1.010900385742834</v>
       </c>
       <c r="K17">
-        <v>1.037755532059625</v>
+        <v>1.022591915887974</v>
       </c>
       <c r="L17">
-        <v>1.02928396440041</v>
+        <v>1.006715667462</v>
       </c>
       <c r="M17">
-        <v>1.046109591595862</v>
+        <v>1.024992204521388</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025682932872436</v>
+        <v>0.9838434265774947</v>
       </c>
       <c r="D18">
-        <v>1.034541378424488</v>
+        <v>1.009507432501658</v>
       </c>
       <c r="E18">
-        <v>1.026062029174008</v>
+        <v>0.9934249401406301</v>
       </c>
       <c r="F18">
-        <v>1.042956005383516</v>
+        <v>1.012082104720543</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033336253878043</v>
+        <v>1.040474033366524</v>
       </c>
       <c r="J18">
-        <v>1.031854751310112</v>
+        <v>1.011531018526258</v>
       </c>
       <c r="K18">
-        <v>1.037870336686478</v>
+        <v>1.023164048764153</v>
       </c>
       <c r="L18">
-        <v>1.029420504253572</v>
+        <v>1.007358141127339</v>
       </c>
       <c r="M18">
-        <v>1.04625619379419</v>
+        <v>1.02569549410861</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025755283844468</v>
+        <v>0.9842103643376746</v>
       </c>
       <c r="D19">
-        <v>1.034595031264577</v>
+        <v>1.009769820634853</v>
       </c>
       <c r="E19">
-        <v>1.026123269655155</v>
+        <v>0.9937134295952185</v>
       </c>
       <c r="F19">
-        <v>1.043020409253057</v>
+        <v>1.012389594835368</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033347887687591</v>
+        <v>1.040558022842987</v>
       </c>
       <c r="J19">
-        <v>1.0318993540063</v>
+        <v>1.011745245724981</v>
       </c>
       <c r="K19">
-        <v>1.037909476440289</v>
+        <v>1.023358368065438</v>
       </c>
       <c r="L19">
-        <v>1.029467066753982</v>
+        <v>1.007576435581823</v>
       </c>
       <c r="M19">
-        <v>1.046306182976704</v>
+        <v>1.025934425340358</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0254317653732</v>
+        <v>0.9825640025193338</v>
       </c>
       <c r="D20">
-        <v>1.034355114975053</v>
+        <v>1.008592893955053</v>
       </c>
       <c r="E20">
-        <v>1.025849463511307</v>
+        <v>0.9924196570442969</v>
       </c>
       <c r="F20">
-        <v>1.042732438100388</v>
+        <v>1.011010455223209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033295766735809</v>
+        <v>1.040180458860888</v>
       </c>
       <c r="J20">
-        <v>1.031699884303541</v>
+        <v>1.010784002363195</v>
       </c>
       <c r="K20">
-        <v>1.037734411935386</v>
+        <v>1.022486311971662</v>
       </c>
       <c r="L20">
-        <v>1.029258851748887</v>
+        <v>1.006597120245747</v>
       </c>
       <c r="M20">
-        <v>1.046082626003916</v>
+        <v>1.024862423103768</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024380895017501</v>
+        <v>0.9771151156774578</v>
       </c>
       <c r="D21">
-        <v>1.033575689620052</v>
+        <v>1.004704181568693</v>
       </c>
       <c r="E21">
-        <v>1.024960628767241</v>
+        <v>0.9881488469194595</v>
       </c>
       <c r="F21">
-        <v>1.041797243383411</v>
+        <v>1.006455122224932</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033124706985447</v>
+        <v>1.038918237675965</v>
       </c>
       <c r="J21">
-        <v>1.031051464817989</v>
+        <v>1.007601814144906</v>
       </c>
       <c r="K21">
-        <v>1.037164873491486</v>
+        <v>1.01959697651118</v>
       </c>
       <c r="L21">
-        <v>1.028582341416547</v>
+        <v>1.003358276076129</v>
       </c>
       <c r="M21">
-        <v>1.045355939239307</v>
+        <v>1.021315223703154</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023720881875455</v>
+        <v>0.9736116970952328</v>
       </c>
       <c r="D22">
-        <v>1.033086075919961</v>
+        <v>1.002209366712525</v>
       </c>
       <c r="E22">
-        <v>1.024402814815714</v>
+        <v>0.9854118262012161</v>
       </c>
       <c r="F22">
-        <v>1.041210045708527</v>
+        <v>1.003533716554869</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033015924296492</v>
+        <v>1.038097243916281</v>
       </c>
       <c r="J22">
-        <v>1.030643841669302</v>
+        <v>1.005555437493297</v>
       </c>
       <c r="K22">
-        <v>1.03680649170505</v>
+        <v>1.017737182308394</v>
       </c>
       <c r="L22">
-        <v>1.028157318198017</v>
+        <v>1.001277924934319</v>
       </c>
       <c r="M22">
-        <v>1.044899140663327</v>
+        <v>1.019035493367767</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024070699570384</v>
+        <v>0.9754765108324025</v>
       </c>
       <c r="D23">
-        <v>1.033345586974014</v>
+        <v>1.003536771125364</v>
       </c>
       <c r="E23">
-        <v>1.024698424228092</v>
+        <v>0.9868678325155924</v>
       </c>
       <c r="F23">
-        <v>1.041521254244514</v>
+        <v>1.005087998843798</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033073708509836</v>
+        <v>1.038535115435956</v>
       </c>
       <c r="J23">
-        <v>1.030859923977745</v>
+        <v>1.006644707065151</v>
       </c>
       <c r="K23">
-        <v>1.036996503796713</v>
+        <v>1.018727292653653</v>
       </c>
       <c r="L23">
-        <v>1.028382599775119</v>
+        <v>1.002385046201626</v>
       </c>
       <c r="M23">
-        <v>1.045141288443898</v>
+        <v>1.020248839150513</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025449395317832</v>
+        <v>0.9826540923508582</v>
       </c>
       <c r="D24">
-        <v>1.034368189517166</v>
+        <v>1.008657272903088</v>
       </c>
       <c r="E24">
-        <v>1.025864382318433</v>
+        <v>0.9924904124116956</v>
       </c>
       <c r="F24">
-        <v>1.042748130136606</v>
+        <v>1.011085889532314</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033298613669594</v>
+        <v>1.040201167079921</v>
       </c>
       <c r="J24">
-        <v>1.031710756142654</v>
+        <v>1.01083660578218</v>
       </c>
       <c r="K24">
-        <v>1.037743955312947</v>
+        <v>1.02253404388307</v>
       </c>
       <c r="L24">
-        <v>1.029270198966425</v>
+        <v>1.006650700862737</v>
       </c>
       <c r="M24">
-        <v>1.046094810564026</v>
+        <v>1.024921081803449</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027052350972483</v>
+        <v>0.9906686716759462</v>
       </c>
       <c r="D25">
-        <v>1.035556732897641</v>
+        <v>1.014395015104345</v>
       </c>
       <c r="E25">
-        <v>1.027221851787699</v>
+        <v>0.9988039036725496</v>
       </c>
       <c r="F25">
-        <v>1.044175260987338</v>
+        <v>1.017811871697498</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03355422507682</v>
+        <v>1.04202016693589</v>
       </c>
       <c r="J25">
-        <v>1.032698339954248</v>
+        <v>1.015514205401483</v>
       </c>
       <c r="K25">
-        <v>1.03861002689691</v>
+        <v>1.02677390255045</v>
       </c>
       <c r="L25">
-        <v>1.030301586055918</v>
+        <v>1.01142081591604</v>
       </c>
       <c r="M25">
-        <v>1.047201699757723</v>
+        <v>1.030139833506856</v>
       </c>
     </row>
   </sheetData>
